--- a/Buff/BuffTemplate.xlsx
+++ b/Buff/BuffTemplate.xlsx
@@ -1,42 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="buff|BuffTemplate" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">作用阵营
 </t>
     </r>
@@ -45,34 +37,17 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1=自己
 2=友方
 3=敌方</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>camp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dotType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dotValue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">生效类型
+      <t xml:space="preserve">buff类型
+效果类
 </t>
     </r>
     <r>
@@ -80,70 +55,27 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>1=时间
-2=次数</t>
+      <t>1=恢复血量值
+2=恢复血量百分比
+3=物理伤害增加值
+4=物理伤害增加百分比
+状态类
+10000 = 眩晕
+10001 = 沉默
+10002 = 无敌
+10003 = 霸体</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">buff类型
-</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>1=恢复血量值
-2=恢复血量百分比</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffValue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSONArray</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">buff值
 </t>
     </r>
@@ -152,20 +84,18 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>与buffType顺序对应</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.3]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">触发条件
+1=时间间隔
+2=主动攻击时
+3=被攻击时
+4=死亡时触发
+</t>
   </si>
   <si>
     <r>
@@ -177,68 +107,494 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>类型1填写：
-[持续时间,触发一次时间]
-单位秒，-1代表一直持续
-类型2填写：[次数]</t>
+      <t>类型1填写：触发一次时间
+单位秒</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除类型
+1 时间结束
+2 触发次数</t>
+  </si>
+  <si>
+    <t>移除参数
+移除类型1:填时长(-1为无限)
+移除类型2:填总使用次数</t>
+  </si>
+  <si>
+    <t>伤害属性
+1 物理伤害
+2 魔法伤害</t>
+  </si>
+  <si>
+    <t>益处
+1 有利
+2 有害</t>
+  </si>
+  <si>
+    <t>优先级
+1 覆盖
+2 叠加</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>层数
+一个buff累加层数</t>
+  </si>
+  <si>
+    <t>特效</t>
+  </si>
+  <si>
+    <t>sn</t>
+  </si>
+  <si>
+    <t>camp</t>
+  </si>
+  <si>
+    <t>buffType</t>
+  </si>
+  <si>
+    <t>buffValue</t>
+  </si>
+  <si>
+    <t>trigger</t>
+  </si>
+  <si>
+    <t>dotValue</t>
+  </si>
+  <si>
+    <t>removeType</t>
+  </si>
+  <si>
+    <t>removeValue</t>
+  </si>
+  <si>
+    <t>damageType</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>layer</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>JSONArray</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>探索岛宠物回血点</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[0.3]</t>
   </si>
   <si>
     <t>[-1,1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>探索岛宠物回血点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -246,28 +602,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -316,7 +963,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,7 +998,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,151 +1201,241 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="12.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="1" ht="180" customHeight="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Buff/BuffTemplate.xlsx
+++ b/Buff/BuffTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -45,7 +45,17 @@
     </r>
   </si>
   <si>
+    <t>作用范围
+半径N米的园</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">buff类型
 效果类
 </t>
@@ -94,13 +104,14 @@
 1=时间间隔
 2=主动攻击时
 3=被攻击时
-4=死亡时触发
+4=死亡前触发
+5=死亡后触发
 </t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">生效值
-</t>
+      <t>生效值
+触发=1:</t>
     </r>
     <r>
       <rPr>
@@ -109,8 +120,12 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>类型1填写：触发一次时间
-单位秒</t>
+      <t>[1,1.1] 第0秒触发，每间隔1.1秒触发
+1 物理伤害
+2 魔法伤害
+触发=3:[1] 受物理攻击触发
+触发=3:[2] 受魔法攻击触发
+触发=3:[-1] 受攻击触发</t>
     </r>
   </si>
   <si>
@@ -124,11 +139,6 @@
 移除类型2:填总使用次数</t>
   </si>
   <si>
-    <t>伤害属性
-1 物理伤害
-2 魔法伤害</t>
-  </si>
-  <si>
     <t>益处
 1 有利
 2 有害</t>
@@ -139,13 +149,13 @@
 2 叠加</t>
   </si>
   <si>
-    <t>等级</t>
-  </si>
-  <si>
     <t>层数
 一个buff累加层数</t>
   </si>
   <si>
+    <t>等级</t>
+  </si>
+  <si>
     <t>特效</t>
   </si>
   <si>
@@ -155,13 +165,16 @@
     <t>camp</t>
   </si>
   <si>
+    <t>range</t>
+  </si>
+  <si>
     <t>buffType</t>
   </si>
   <si>
     <t>buffValue</t>
   </si>
   <si>
-    <t>trigger</t>
+    <t>triggerCondition</t>
   </si>
   <si>
     <t>dotValue</t>
@@ -173,27 +186,27 @@
     <t>removeValue</t>
   </si>
   <si>
-    <t>damageType</t>
-  </si>
-  <si>
     <t>advantage</t>
   </si>
   <si>
     <t>priority</t>
   </si>
   <si>
+    <t>layer</t>
+  </si>
+  <si>
     <t>level</t>
   </si>
   <si>
-    <t>layer</t>
-  </si>
-  <si>
     <t>effect</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>JSONArray</t>
   </si>
   <si>
@@ -215,7 +228,7 @@
     <t>[0.3]</t>
   </si>
   <si>
-    <t>[-1,1]</t>
+    <t>[1,1.1]</t>
   </si>
 </sst>
 </file>
@@ -228,7 +241,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,13 +254,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -703,48 +709,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -754,110 +763,104 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1209,24 +1212,23 @@
   <sheetPr/>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.625" style="1" customWidth="1"/>
-    <col min="10" max="12" width="12.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.625" style="1" customWidth="1"/>
+    <col min="11" max="13" width="12.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.875" style="1" customWidth="1"/>
     <col min="15" max="15" width="16.5" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
@@ -1253,25 +1255,25 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -1333,16 +1335,16 @@
         <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>29</v>
@@ -1363,74 +1365,95 @@
         <v>29</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
+      <c r="D5" s="1">
+        <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>37</v>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
